--- a/ITBM - EXCEL TEMPLATE/MEGA_USR/ITBM Template.xlsx
+++ b/ITBM - EXCEL TEMPLATE/MEGA_USR/ITBM Template.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAM\Desktop\Icon\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CD08AE-3345-4248-885F-1B8C645B4A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFF8934-5865-4C3B-B36F-2187E60B3E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8805" yWindow="-16800" windowWidth="30960" windowHeight="16920" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_README" sheetId="18" r:id="rId1"/>
@@ -39,114 +34,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={148C7E79-6578-492E-AC56-C0CED02155AE}</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{148C7E79-6578-492E-AC56-C0CED02155AE}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Ignored</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>AIT MOUSSA Mohamed</author>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7D472D75-022F-4F1A-8878-F7C48B399A49}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Business Trasnformation Period Vlaue:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>P: Past
-A: As Is
-F: Future</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>BESSODES Patrick</author>
-  </authors>
-  <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{03009854-AA7D-412F-A6B5-2519D053954A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Type of fulllfilling Agent Values : 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>- "Application" 
-- "Application System</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>"</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -637,7 +524,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -674,19 +561,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1086,9 +960,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="AIT MOUSSA Mohamed" id="{9B7E9BE9-B4D9-43E4-9CF6-DC6FE3D985AC}" userId="S::maitmoussa@mega.com::f700b7fb-8a03-44dd-82a3-66cb435d0346" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1386,44 +1258,35 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2020-01-15T16:31:54.88" personId="{9B7E9BE9-B4D9-43E4-9CF6-DC6FE3D985AC}" id="{148C7E79-6578-492E-AC56-C0CED02155AE}">
-    <text>Ignored</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B9B51B-F522-4F2F-AD6B-CFFF98D2A31C}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B9B51B-F522-4F2F-AD6B-CFFF98D2A31C}">
+  <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="69.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1434,7 +1297,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="10" t="s">
         <v>1</v>
@@ -1443,7 +1306,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="10" t="s">
         <v>2</v>
@@ -1452,10 +1315,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
         <v>14</v>
       </c>
@@ -1466,7 +1329,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="34"/>
       <c r="C9" s="10" t="s">
         <v>9</v>
@@ -1475,7 +1338,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B10" s="34"/>
       <c r="C10" s="10" t="s">
         <v>8</v>
@@ -1484,10 +1347,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="102" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
@@ -1498,10 +1361,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="34" t="s">
         <v>33</v>
       </c>
@@ -1512,7 +1375,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="34"/>
       <c r="C15" s="10" t="s">
         <v>32</v>
@@ -1521,7 +1384,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="34"/>
       <c r="C16" s="10" t="s">
         <v>37</v>
@@ -1530,7 +1393,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B17" s="34"/>
       <c r="C17" s="10" t="s">
         <v>35</v>
@@ -1539,7 +1402,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="34"/>
       <c r="C18" s="10" t="s">
         <v>36</v>
@@ -1548,7 +1411,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="31" t="s">
         <v>94</v>
       </c>
@@ -1557,7 +1420,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="23" spans="2:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="31" t="s">
         <v>108</v>
       </c>
@@ -1573,7 +1436,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1585,17 +1447,17 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="18.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>32</v>
       </c>
@@ -1612,7 +1474,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>40</v>
       </c>
@@ -1629,13 +1491,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E7" s="2"/>
     </row>
   </sheetData>
@@ -1650,6 +1512,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1661,15 +1524,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="31.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="22.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="31.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>38</v>
       </c>
@@ -1683,7 +1546,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1697,22 +1560,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="2"/>
     </row>
   </sheetData>
@@ -1722,6 +1585,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1733,18 +1597,18 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="36" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>35</v>
       </c>
@@ -1764,7 +1628,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>42</v>
       </c>
@@ -1784,11 +1648,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E6" s="2"/>
     </row>
   </sheetData>
@@ -1807,18 +1671,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A42720-785E-41FE-95C9-BD7EF6A56E66}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -1829,7 +1693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="21" customFormat="1" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="21" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>43</v>
       </c>
@@ -1847,6 +1711,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B2" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -1861,18 +1726,18 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="37.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
@@ -1892,7 +1757,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="11" customFormat="1" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="11" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
@@ -1912,12 +1777,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
@@ -1944,18 +1809,18 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="31.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
@@ -1972,7 +1837,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
@@ -1989,23 +1854,23 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="C3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="25"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E6" s="2"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" s="2"/>
     </row>
   </sheetData>
@@ -2045,17 +1910,17 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="20.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>27</v>
       </c>
@@ -2072,7 +1937,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
@@ -2089,23 +1954,23 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="C3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="25"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E6" s="2"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" s="2"/>
     </row>
   </sheetData>
@@ -2128,26 +1993,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EE24EE-C82E-49A6-A4F6-5208C486B8C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EE24EE-C82E-49A6-A4F6-5208C486B8C1}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" style="27" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="27" customWidth="1"/>
-    <col min="7" max="7" width="39.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
@@ -2170,7 +2035,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>23</v>
       </c>
@@ -2193,20 +2058,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="33"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D7" s="2"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="2"/>
     </row>
   </sheetData>
@@ -2230,7 +2095,6 @@
   <ignoredErrors>
     <ignoredError sqref="C2" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2242,18 +2106,18 @@
       <selection activeCell="C2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
     <col min="4" max="4" width="54" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="36.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>28</v>
       </c>
@@ -2273,7 +2137,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
@@ -2293,17 +2157,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6" s="2"/>
     </row>
   </sheetData>
@@ -2338,18 +2202,18 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="50.140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
@@ -2372,7 +2236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>30</v>
       </c>
@@ -2395,19 +2259,19 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D5" s="2"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
     </row>
   </sheetData>
@@ -2435,27 +2299,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB3E152-9096-45A5-BA0A-66F010441279}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB3E152-9096-45A5-BA0A-66F010441279}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="6" width="65.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="65.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
@@ -2481,7 +2345,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>84</v>
       </c>
@@ -2511,7 +2375,7 @@
       <c r="A3" s="21"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2521,7 +2385,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F9" s="2"/>
     </row>
   </sheetData>
@@ -2555,7 +2419,6 @@
   <ignoredErrors>
     <ignoredError sqref="C2" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2567,17 +2430,17 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="16.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>31</v>
       </c>
@@ -2594,7 +2457,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>39</v>
       </c>
@@ -2611,7 +2474,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="D3" s="2"/>
     </row>
@@ -2627,5 +2490,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>